--- a/ig/newWorkflow/StructureDefinition-ror-contact-function-contact.xlsx
+++ b/ig/newWorkflow/StructureDefinition-ror-contact-function-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T08:51:04+00:00</t>
+    <t>2024-02-01T08:53:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
